--- a/results/retweets.xlsx
+++ b/results/retweets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>User</t>
   </si>
@@ -914,6 +914,12 @@
   </si>
   <si>
     <t>Leigh_Bonds</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1255,7 @@
   <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
   </s:sheetPr>
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5415,6 +5421,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <f>AVERAGE(B2:B297)</f>
+        <v/>
+      </c>
+      <c r="C298">
+        <f>AVERAGE(C2:C297)</f>
+        <v/>
+      </c>
+      <c r="D298">
+        <f>AVERAGE(D2:D297)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <f>MEDIAN(B2:B297)</f>
+        <v/>
+      </c>
+      <c r="C299">
+        <f>MEDIAN(C2:C297)</f>
+        <v/>
+      </c>
+      <c r="D299">
+        <f>MEDIAN(D2:D297)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
